--- a/bbsim.xlsx
+++ b/bbsim.xlsx
@@ -56,6 +56,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00ccffcc"/>
+        <bgColor rgb="00ccffcc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00959ffd"/>
         <bgColor rgb="00959ffd"/>
       </patternFill>
@@ -64,12 +70,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="0073fb76"/>
         <bgColor rgb="0073fb76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ccffcc"/>
-        <bgColor rgb="00ccffcc"/>
       </patternFill>
     </fill>
     <fill>
@@ -105,10 +105,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -577,72 +577,72 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Kaitlyn</t>
+          <t>Jaeden</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Jaden</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Eliana</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>Jaeden</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Yogi</t>
+          <t>Jaeden</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Jaden</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Jaeden</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Gabby</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>Yogi</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Jaeden</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="P2" s="3" t="inlineStr">
@@ -659,72 +659,72 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>['Dylan', 'Yogi']</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>['Madison', 'Jaden']</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>['Geoffrey', 'Sara']</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>['Madison', 'Gabby']</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>['Sara', 'Camila']</t>
-        </is>
-      </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
+          <t>['Yogi', 'Gabby']</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
           <t>['Faith', 'Eliana']</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>['Kaitlyn', 'Ryan']</t>
-        </is>
-      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>['Ryan', 'Camila']</t>
+          <t>['Sydney', 'Camila']</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>['Faith', 'Evan']</t>
+          <t>['Camila', 'Diego']</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>['Ryan', 'Dylan']</t>
+          <t>['Evan', 'Sara']</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>['Evan', 'Yogi']</t>
+          <t>['Ryan', 'Gabby']</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>['Jaden', 'Sydney']</t>
+          <t>['Jaeden', 'Madison']</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>['Jaeden', 'Sydney']</t>
+          <t>['Diego', 'Kaitlyn']</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>['Dylan', 'Sydney']</t>
+          <t>['Eliana', 'Jaeden']</t>
         </is>
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>['Madison', 'Yogi']</t>
+          <t>['Gabby', 'Diego']</t>
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>['Dylan', 'Diego']</t>
+          <t>['Jaeden', 'Gabby']</t>
         </is>
       </c>
       <c r="P3" s="3" t="inlineStr">
@@ -741,67 +741,67 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Jaeden</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>Camila</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Jaeden</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Eliana</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Jaeden</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Yogi</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Yogi</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
@@ -823,67 +823,67 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>['Dylan', 'Yogi']</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>['Madison', 'Jaden']</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>['Geoffrey', 'Sara']</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>['Madison', 'Gabby']</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>['Sara', 'Camila']</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>['Yogi', 'Gabby']</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>['Faith', 'Eliana']</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>['Kaitlyn', 'Ryan']</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>['Ryan', 'Camila']</t>
+          <t>['Sydney', 'Camila']</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>['Faith', 'Evan']</t>
+          <t>['Camila', 'Diego']</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>['Ryan', 'Dylan']</t>
+          <t>['Evan', 'Sara']</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>['Evan', 'Yogi']</t>
+          <t>['Ryan', 'Gabby']</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>['Jaden', 'Sydney']</t>
+          <t>['Jaeden', 'Madison']</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>['Jaeden', 'Sydney']</t>
+          <t>['Diego', 'Kaitlyn']</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>['Dylan', 'Sydney']</t>
+          <t>['Eliana', 'Jaeden']</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>['Madison', 'Yogi']</t>
+          <t>['Gabby', 'Diego']</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
@@ -900,80 +900,80 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>Jaeden</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>HOH</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>HOH</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>HOH</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>HOH</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
           <t>Diego</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Geoffrey</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Eliana</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>Yogi</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>HOH</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -982,77 +982,77 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>Madison</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Geoffrey</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>HOH</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>Eliana</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Yogi</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>Jaden</t>
-        </is>
-      </c>
-      <c r="L8" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="O8" s="6" t="inlineStr">
-        <is>
-          <t>Dylan*</t>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>Gabby*</t>
         </is>
       </c>
       <c r="P8" s="7" t="inlineStr">
@@ -1064,306 +1064,306 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Gabby</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Geoffrey</t>
+          <t>Yogi</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Gabby</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>Camila</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="K9" s="6" t="inlineStr">
-        <is>
-          <t>Jaden*</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Jaeden</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="N9" s="6" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>HOH</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>Eliana</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Sara</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Geoffrey</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>Yogi</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Geoffrey</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Gabby</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
+          <t>Eliana</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>HOH</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>Evan*</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>Ryan</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>HOH</t>
+        </is>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>Jaeden</t>
-        </is>
-      </c>
-      <c r="M10" s="6" t="inlineStr">
-        <is>
-          <t>Sydney*</t>
-        </is>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>Diego</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Eliana</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>HOH</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>Sara</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Gabby</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>Sara</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Eliana</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="L11" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="O11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>Diego</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>Jaeden</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Geoffrey</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Gabby</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Yogi</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Jaden</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1385,62 +1385,62 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Jaeden</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Jaden</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Geoffrey</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>Sara</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Eliana</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="I13" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Evan</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1467,57 +1467,57 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Sara</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Geoffrey</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Geoffrey</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Gabby</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Faith</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Ryan</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1549,52 +1549,52 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Jaeden</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Evan</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Geoffrey</t>
+          <t>Yogi</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>Gabby</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Eliana</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Faith</t>
-        </is>
-      </c>
-      <c r="I15" s="4" t="inlineStr">
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1631,47 +1631,47 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Jaeden</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Jaden*</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Geoffrey</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>Faith</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1720,35 +1720,35 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Camila</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Yogi</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Geoffrey</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Eliana</t>
+          <t>Gabby</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1802,30 +1802,30 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Kaitlyn</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>HOH</t>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Gabby</t>
+          <t>Jaden</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Eliana</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Yogi*</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1884,25 +1884,25 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Eliana</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>NOM</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Geoffrey</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Gabby</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Camila</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -1966,20 +1966,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>NOM</t>
+          <t>Geoffrey</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Gabby</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -2048,15 +2048,15 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gabby</t>
+          <t>Jaden</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Geoffrey</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>
@@ -2130,10 +2130,10 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Geoffrey</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>NOM</t>
         </is>

--- a/bbsim.xlsx
+++ b/bbsim.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,8 +28,11 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -56,14 +59,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ccffcc"/>
-        <bgColor rgb="00ccffcc"/>
+        <fgColor rgb="00959ffd"/>
+        <bgColor rgb="00959ffd"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00959ffd"/>
-        <bgColor rgb="00959ffd"/>
+        <fgColor rgb="00ccffcc"/>
+        <bgColor rgb="00ccffcc"/>
       </patternFill>
     </fill>
     <fill>
@@ -76,6 +79,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00d1e8ef"/>
         <bgColor rgb="00d1e8ef"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fa8072"/>
+        <bgColor rgb="00fa8072"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -102,16 +111,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +550,41 @@
           <t>Week 9</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Week 10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Week 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Week 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Week 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Week 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Week 15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Week 16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -547,45 +594,80 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Eliana</t>
+          <t>Jaden</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Faith</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Collin</t>
+          <t>Miles</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Dav</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Eliana</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+          <t>Dav</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Dav</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    </t>
         </is>
@@ -594,102 +676,190 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nominations (pre-veto)</t>
+          <t>Nominations
+(pre-veto)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>['Dad', 'Jaden']</t>
+          <t>Diego
+Gabby</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>['Collin', 'Mom']</t>
+          <t>Ryan
+Blake</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>['Collin', 'Chris']</t>
+          <t>Camila
+Sydney</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>['Dad', 'Savannah']</t>
+          <t>Sara
+Camila</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>['Sabrina', 'Diego']</t>
+          <t>Dylan
+Ryan</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>['Dad', 'Eliana']</t>
+          <t>Kate
+Ryan</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>['Samantha', 'Sabrina']</t>
+          <t>Camila
+Faith</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>['Samantha', 'Eliana']</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
+          <t>Kate
+Diego</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Eliana
+Madison</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Kate
+Yogi</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Madison
+Dav</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Diego
+Miles</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Miles
+Kate</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn
+Madison</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>Madison
+Kate</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Veto Winner</t>
+          <t>Veto
+Winner</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Jaden</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Collin</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Dav</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    </t>
         </is>
@@ -698,102 +868,190 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nominations (post-veto)</t>
+          <t>Nominations
+(post-veto)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>['Dad', 'Jaden']</t>
+          <t>Gabby
+Kaitlyn</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>['Mom', 'Diego']</t>
+          <t>Ryan
+Blake</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>['Chris', 'Dad']</t>
+          <t>Sydney
+Jaden</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>['Dad', 'Savannah']</t>
+          <t>Sara
+Camila</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>['Sabrina', 'Diego']</t>
+          <t>Dylan
+Madison</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>['Dad', 'Eliana']</t>
+          <t>Kate
+Ryan</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>['Samantha', 'Collin']</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
+          <t>Camila
+Faith</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Kate
+Sydney</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Eliana
+Dav</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Kate
+Yogi</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Madison
+Dav</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>Diego
+Miles</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>Kate
+Faith</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn
+Madison</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ </t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>Eliana</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Jaden</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Mom*</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Dad</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t>Diego</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="J7" s="6" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="Q7" s="6" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -802,50 +1060,87 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Miles</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Jaden</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Mom</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Dad</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>HOH</t>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>Dad*</t>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>Samantha*</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Dav</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>Kate*</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="inlineStr">
         <is>
           <t>Runner-up</t>
         </is>
@@ -854,156 +1149,268 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Samantha</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>HOH</t>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Blake</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Eliana</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>Diego</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>HOH</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Sabrina</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Eliana</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Eliana</t>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="P9" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 15</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Jaden</t>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Mom</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>HOH</t>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Dad</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
           <t>Eliana</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Dav</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="P10" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 14</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Dad</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
+          <t>Jaden*</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Diego</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Sabrina</t>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Dav</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="O11" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 13</t>
+        </is>
+      </c>
+      <c r="P11" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Miles</t>
         </is>
       </c>
     </row>
@@ -1015,253 +1422,1053 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Dad</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Blake</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Dad</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>Camila*</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Eliana</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Yogi</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Dav</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="N12" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 12</t>
+        </is>
+      </c>
+      <c r="O12" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P12" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Dav</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Jaden</t>
+          <t>Gabby</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Mom</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Eliana</t>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="M13" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 11</t>
+        </is>
+      </c>
+      <c r="N13" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O13" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Yogi</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Dad</t>
+          <t>Gabby</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Diego</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
+          <t>Blake</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Faith</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Eliana</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="L14" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 10</t>
+        </is>
+      </c>
+      <c r="M14" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N14" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O14" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P14" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Mom</t>
+          <t>Eliana</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Dad</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 9</t>
+        </is>
+      </c>
+      <c r="L15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Blake</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 8</t>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Blake</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 7</t>
+        </is>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="K17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Kaitlyn</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Jaden</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>NOM</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Camila</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 6</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 5</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="J19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="K19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q19" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 4</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Jaden</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Head of
+Household</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 3</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="J21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="K21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Blake</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Gabby*</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 2</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Gabby</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Nominated</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>Evicted
+Week 1</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="M23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="N23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="O23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="P23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="Q23" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    </t>
         </is>
